--- a/Threshold/Cu/2His_1Cys/5.xlsx
+++ b/Threshold/Cu/2His_1Cys/5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Cu\2His_1Cys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA3A3F2-DA49-4D22-B0FF-7F2DB2BA3527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAA233-2FBD-4532-A007-5F01FCF28285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -55,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +77,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,9 +109,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,17 +423,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -464,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="C2" s="2">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C3" s="2">
-        <v>7.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -486,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -497,21 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>108.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>16.600000000000001</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Cu/2His_1Cys/5.xlsx
+++ b/Threshold/Cu/2His_1Cys/5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Cu\2His_1Cys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAA233-2FBD-4532-A007-5F01FCF28285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555E71A-B664-473A-B429-A71192F18CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,18 +423,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -453,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>10.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,7 +466,7 @@
         <v>3.8</v>
       </c>
       <c r="C3" s="2">
-        <v>8.9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Cu/2His_1Cys/5.xlsx
+++ b/Threshold/Cu/2His_1Cys/5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Cu\2His_1Cys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\2His_1Cys\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D555E71A-B664-473A-B429-A71192F18CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E559250B-5A4B-4CF2-B21A-525CEDE7BA6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>3.8</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Cu/2His_1Cys/5.xlsx
+++ b/Threshold/Cu/2His_1Cys/5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\2His_1Cys\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E559250B-5A4B-4CF2-B21A-525CEDE7BA6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F71741F-AB92-492F-AE0D-ECC1CCA060D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="10695" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C4" s="2">
         <v>1.6</v>
